--- a/data/covid_cea_input_data.xlsx
+++ b/data/covid_cea_input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Howard\Documents\Bristol\Covid-19\Cost-effectiveness of lockdowns\covid_cea\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6534F8-19B9-4934-BFDE-9DE1B75270F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4728AC-6DEC-46CA-86D3-FEDF6DDCF26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13155" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global_inputs" sheetId="13" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="284">
   <si>
     <t>Country</t>
   </si>
@@ -1031,18 +1031,21 @@
   <si>
     <t>84</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://cmmid.github.io/visualisations/covid-transmission-model </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1396,7 +1399,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1486,24 +1489,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1514,12 +1499,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1539,6 +1524,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="11" xr:uid="{8ED3ED79-BF2D-4524-94B7-C76961EC857F}"/>
@@ -3948,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C49B7B-63B5-4C64-9CF5-709AACF5E9FD}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4075,6 +4078,9 @@
       <c r="B13">
         <v>8</v>
       </c>
+      <c r="C13" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -4082,6 +4088,9 @@
       </c>
       <c r="B14">
         <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4093,14 +4102,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4028F5EC-6D30-4686-888F-C42A0A07D60F}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>109</v>
       </c>
       <c r="B1" t="s">
@@ -4108,7 +4117,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="55">
+      <c r="A2" s="49">
         <v>0</v>
       </c>
       <c r="B2" s="20">
@@ -4116,7 +4125,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="20">
@@ -4124,7 +4133,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="49" t="s">
         <v>200</v>
       </c>
       <c r="B4" s="20">
@@ -4132,7 +4141,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="49" t="s">
         <v>201</v>
       </c>
       <c r="B5" s="20">
@@ -4140,7 +4149,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>202</v>
       </c>
       <c r="B6" s="20">
@@ -4148,7 +4157,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="49" t="s">
         <v>203</v>
       </c>
       <c r="B7" s="20">
@@ -4156,7 +4165,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="49" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="20">
@@ -4164,7 +4173,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="49" t="s">
         <v>205</v>
       </c>
       <c r="B9" s="20">
@@ -4172,7 +4181,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="49" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="20">
@@ -4180,7 +4189,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>207</v>
       </c>
       <c r="B11" s="20">
@@ -4188,7 +4197,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="49" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="20">
@@ -4196,7 +4205,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="49" t="s">
         <v>209</v>
       </c>
       <c r="B13" s="20">
@@ -4204,7 +4213,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="49" t="s">
         <v>210</v>
       </c>
       <c r="B14" s="20">
@@ -4212,7 +4221,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="49" t="s">
         <v>211</v>
       </c>
       <c r="B15" s="20">
@@ -4220,7 +4229,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B16" s="20">
@@ -4228,7 +4237,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="49" t="s">
         <v>213</v>
       </c>
       <c r="B17" s="20">
@@ -4236,7 +4245,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="49" t="s">
         <v>214</v>
       </c>
       <c r="B18" s="20">
@@ -4244,7 +4253,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="49" t="s">
         <v>215</v>
       </c>
       <c r="B19" s="20">
@@ -4252,7 +4261,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="49" t="s">
         <v>216</v>
       </c>
       <c r="B20" s="20">
@@ -4260,7 +4269,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="49" t="s">
         <v>217</v>
       </c>
       <c r="B21" s="20">
@@ -4268,7 +4277,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B22" s="20">
@@ -4276,7 +4285,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="49" t="s">
         <v>219</v>
       </c>
       <c r="B23" s="20">
@@ -4284,7 +4293,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>220</v>
       </c>
       <c r="B24" s="20">
@@ -4292,7 +4301,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="49" t="s">
         <v>221</v>
       </c>
       <c r="B25" s="20">
@@ -4300,7 +4309,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="49" t="s">
         <v>222</v>
       </c>
       <c r="B26" s="20">
@@ -4308,7 +4317,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="49" t="s">
         <v>223</v>
       </c>
       <c r="B27" s="20">
@@ -4316,7 +4325,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="49" t="s">
         <v>224</v>
       </c>
       <c r="B28" s="20">
@@ -4324,7 +4333,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="49" t="s">
         <v>225</v>
       </c>
       <c r="B29" s="20">
@@ -4332,7 +4341,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="49" t="s">
         <v>226</v>
       </c>
       <c r="B30" s="20">
@@ -4340,7 +4349,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="49" t="s">
         <v>227</v>
       </c>
       <c r="B31" s="20">
@@ -4348,7 +4357,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="49" t="s">
         <v>228</v>
       </c>
       <c r="B32" s="20">
@@ -4356,7 +4365,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="49" t="s">
         <v>229</v>
       </c>
       <c r="B33" s="20">
@@ -4364,7 +4373,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="49" t="s">
         <v>230</v>
       </c>
       <c r="B34" s="20">
@@ -4372,7 +4381,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="49" t="s">
         <v>231</v>
       </c>
       <c r="B35" s="20">
@@ -4380,7 +4389,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="49" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="20">
@@ -4388,7 +4397,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="49" t="s">
         <v>233</v>
       </c>
       <c r="B37" s="20">
@@ -4396,7 +4405,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="49" t="s">
         <v>234</v>
       </c>
       <c r="B38" s="20">
@@ -4404,7 +4413,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="49" t="s">
         <v>235</v>
       </c>
       <c r="B39" s="20">
@@ -4412,7 +4421,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="49" t="s">
         <v>236</v>
       </c>
       <c r="B40" s="20">
@@ -4420,7 +4429,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="49" t="s">
         <v>237</v>
       </c>
       <c r="B41" s="20">
@@ -4428,7 +4437,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="49" t="s">
         <v>238</v>
       </c>
       <c r="B42" s="20">
@@ -4436,7 +4445,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="49" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="20">
@@ -4444,7 +4453,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="49" t="s">
         <v>240</v>
       </c>
       <c r="B44" s="20">
@@ -4452,7 +4461,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="49" t="s">
         <v>241</v>
       </c>
       <c r="B45" s="20">
@@ -4460,7 +4469,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="49" t="s">
         <v>242</v>
       </c>
       <c r="B46" s="20">
@@ -4468,7 +4477,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="49" t="s">
         <v>243</v>
       </c>
       <c r="B47" s="20">
@@ -4476,7 +4485,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="49" t="s">
         <v>244</v>
       </c>
       <c r="B48" s="20">
@@ -4484,7 +4493,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="49" t="s">
         <v>245</v>
       </c>
       <c r="B49" s="20">
@@ -4492,7 +4501,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="49" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="20">
@@ -4500,7 +4509,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="49" t="s">
         <v>247</v>
       </c>
       <c r="B51" s="20">
@@ -4508,7 +4517,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="49" t="s">
         <v>248</v>
       </c>
       <c r="B52" s="20">
@@ -4516,7 +4525,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="49" t="s">
         <v>249</v>
       </c>
       <c r="B53" s="20">
@@ -4524,7 +4533,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="49" t="s">
         <v>250</v>
       </c>
       <c r="B54" s="20">
@@ -4532,7 +4541,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="49" t="s">
         <v>251</v>
       </c>
       <c r="B55" s="20">
@@ -4540,7 +4549,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="49" t="s">
         <v>252</v>
       </c>
       <c r="B56" s="20">
@@ -4548,7 +4557,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="49" t="s">
         <v>253</v>
       </c>
       <c r="B57" s="20">
@@ -4556,7 +4565,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="49" t="s">
         <v>254</v>
       </c>
       <c r="B58" s="20">
@@ -4564,7 +4573,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="49" t="s">
         <v>255</v>
       </c>
       <c r="B59" s="20">
@@ -4572,7 +4581,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="49" t="s">
         <v>256</v>
       </c>
       <c r="B60" s="20">
@@ -4580,7 +4589,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="49" t="s">
         <v>257</v>
       </c>
       <c r="B61" s="20">
@@ -4588,7 +4597,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="49" t="s">
         <v>258</v>
       </c>
       <c r="B62" s="20">
@@ -4596,7 +4605,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="49" t="s">
         <v>259</v>
       </c>
       <c r="B63" s="20">
@@ -4604,7 +4613,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="49" t="s">
         <v>260</v>
       </c>
       <c r="B64" s="20">
@@ -4612,7 +4621,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="49" t="s">
         <v>261</v>
       </c>
       <c r="B65" s="20">
@@ -4620,7 +4629,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="49" t="s">
         <v>262</v>
       </c>
       <c r="B66" s="20">
@@ -4628,7 +4637,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="49" t="s">
         <v>263</v>
       </c>
       <c r="B67" s="20">
@@ -4636,7 +4645,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="49" t="s">
         <v>264</v>
       </c>
       <c r="B68" s="20">
@@ -4644,7 +4653,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="49" t="s">
         <v>265</v>
       </c>
       <c r="B69" s="20">
@@ -4652,7 +4661,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="49" t="s">
         <v>266</v>
       </c>
       <c r="B70" s="20">
@@ -4660,7 +4669,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="49" t="s">
         <v>267</v>
       </c>
       <c r="B71" s="20">
@@ -4668,7 +4677,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="49" t="s">
         <v>268</v>
       </c>
       <c r="B72" s="20">
@@ -4676,7 +4685,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="49" t="s">
         <v>269</v>
       </c>
       <c r="B73" s="20">
@@ -4684,7 +4693,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="49" t="s">
         <v>270</v>
       </c>
       <c r="B74" s="20">
@@ -4692,7 +4701,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="49" t="s">
         <v>271</v>
       </c>
       <c r="B75" s="20">
@@ -4700,7 +4709,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="49" t="s">
         <v>272</v>
       </c>
       <c r="B76" s="20">
@@ -4708,7 +4717,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="49" t="s">
         <v>273</v>
       </c>
       <c r="B77" s="20">
@@ -4716,7 +4725,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="49" t="s">
         <v>274</v>
       </c>
       <c r="B78" s="20">
@@ -4724,7 +4733,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="49" t="s">
         <v>275</v>
       </c>
       <c r="B79" s="20">
@@ -4732,7 +4741,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="49" t="s">
         <v>276</v>
       </c>
       <c r="B80" s="20">
@@ -4740,7 +4749,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="49" t="s">
         <v>277</v>
       </c>
       <c r="B81" s="20">
@@ -4748,7 +4757,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="49" t="s">
         <v>278</v>
       </c>
       <c r="B82" s="20">
@@ -4756,7 +4765,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="49" t="s">
         <v>279</v>
       </c>
       <c r="B83" s="20">
@@ -4764,7 +4773,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="49" t="s">
         <v>280</v>
       </c>
       <c r="B84" s="20">
@@ -4772,7 +4781,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="49" t="s">
         <v>281</v>
       </c>
       <c r="B85" s="20">
@@ -4780,7 +4789,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="49" t="s">
         <v>282</v>
       </c>
       <c r="B86" s="20">
@@ -4788,8 +4797,8 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4806,815 +4815,815 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="58"/>
-    <col min="3" max="16384" width="9.06640625" style="49"/>
+    <col min="1" max="2" width="9.06640625" style="52"/>
+    <col min="3" max="16384" width="9.06640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="61">
+      <c r="A2" s="55">
         <v>0</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="56">
         <v>3.4800600000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="61">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="56">
         <v>2.6814999999999999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="61">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="56">
         <v>1.4923000000000001E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="61">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="56">
         <v>1.1914E-4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="61">
+      <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="56">
         <v>1.0446999999999999E-4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="61">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="56">
         <v>9.5879999999999997E-5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="61">
+      <c r="A8" s="55">
         <v>6</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="56">
         <v>8.8960000000000002E-5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="61">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="56">
         <v>8.564E-5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="61">
+      <c r="A10" s="55">
         <v>8</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="56">
         <v>7.3789999999999997E-5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="61">
+      <c r="A11" s="55">
         <v>9</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="56">
         <v>8.0309999999999995E-5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="61">
+      <c r="A12" s="55">
         <v>10</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="56">
         <v>7.5790000000000005E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="61">
+      <c r="A13" s="55">
         <v>11</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="56">
         <v>7.326E-5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="61">
+      <c r="A14" s="55">
         <v>12</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="56">
         <v>8.2070000000000005E-5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="61">
+      <c r="A15" s="55">
         <v>13</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="56">
         <v>9.0199999999999997E-5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="61">
+      <c r="A16" s="55">
         <v>14</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="56">
         <v>1.3145E-4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="61">
+      <c r="A17" s="55">
         <v>15</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="56">
         <v>1.6337E-4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="61">
+      <c r="A18" s="55">
         <v>16</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="56">
         <v>2.2571000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="61">
+      <c r="A19" s="55">
         <v>17</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="56">
         <v>2.6416999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="61">
+      <c r="A20" s="55">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="56">
         <v>3.9007000000000001E-4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="61">
+      <c r="A21" s="55">
         <v>19</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="56">
         <v>3.9812000000000002E-4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="61">
+      <c r="A22" s="55">
         <v>20</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="56">
         <v>4.1996999999999998E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="61">
+      <c r="A23" s="55">
         <v>21</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="56">
         <v>4.0399000000000001E-4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="61">
+      <c r="A24" s="55">
         <v>22</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="56">
         <v>4.2018999999999997E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="61">
+      <c r="A25" s="55">
         <v>23</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="56">
         <v>3.9919E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="61">
+      <c r="A26" s="55">
         <v>24</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="56">
         <v>4.6398000000000001E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="61">
+      <c r="A27" s="55">
         <v>25</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="56">
         <v>4.3813000000000001E-4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="61">
+      <c r="A28" s="55">
         <v>26</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="56">
         <v>4.4485E-4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="61">
+      <c r="A29" s="55">
         <v>27</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="56">
         <v>4.4351999999999998E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="61">
+      <c r="A30" s="55">
         <v>28</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="56">
         <v>4.9092000000000005E-4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="61">
+      <c r="A31" s="55">
         <v>29</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="56">
         <v>4.973E-4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="61">
+      <c r="A32" s="55">
         <v>30</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="56">
         <v>5.4009000000000001E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="61">
+      <c r="A33" s="55">
         <v>31</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="56">
         <v>6.0461E-4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="61">
+      <c r="A34" s="55">
         <v>32</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="56">
         <v>6.2556000000000005E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="61">
+      <c r="A35" s="55">
         <v>33</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="56">
         <v>7.3572999999999998E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="61">
+      <c r="A36" s="55">
         <v>34</v>
       </c>
-      <c r="B36" s="62">
+      <c r="B36" s="56">
         <v>7.1716E-4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="61">
+      <c r="A37" s="55">
         <v>35</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="56">
         <v>7.5602999999999998E-4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="61">
+      <c r="A38" s="55">
         <v>36</v>
       </c>
-      <c r="B38" s="62">
+      <c r="B38" s="56">
         <v>8.7357999999999999E-4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="61">
+      <c r="A39" s="55">
         <v>37</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="56">
         <v>9.812200000000001E-4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="61">
+      <c r="A40" s="55">
         <v>38</v>
       </c>
-      <c r="B40" s="62">
+      <c r="B40" s="56">
         <v>1.0200299999999999E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="61">
+      <c r="A41" s="55">
         <v>39</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="56">
         <v>1.10848E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="61">
+      <c r="A42" s="55">
         <v>40</v>
       </c>
-      <c r="B42" s="62">
+      <c r="B42" s="56">
         <v>1.18841E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="61">
+      <c r="A43" s="55">
         <v>41</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="56">
         <v>1.3980399999999999E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="61">
+      <c r="A44" s="55">
         <v>42</v>
       </c>
-      <c r="B44" s="62">
+      <c r="B44" s="56">
         <v>1.3948400000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="61">
+      <c r="A45" s="55">
         <v>43</v>
       </c>
-      <c r="B45" s="62">
+      <c r="B45" s="56">
         <v>1.5551499999999999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="61">
+      <c r="A46" s="55">
         <v>44</v>
       </c>
-      <c r="B46" s="62">
+      <c r="B46" s="56">
         <v>1.7152000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="61">
+      <c r="A47" s="55">
         <v>45</v>
       </c>
-      <c r="B47" s="62">
+      <c r="B47" s="56">
         <v>1.9174299999999999E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="61">
+      <c r="A48" s="55">
         <v>46</v>
       </c>
-      <c r="B48" s="62">
+      <c r="B48" s="56">
         <v>2.1267500000000002E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="61">
+      <c r="A49" s="55">
         <v>47</v>
       </c>
-      <c r="B49" s="62">
+      <c r="B49" s="56">
         <v>2.36791E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="61">
+      <c r="A50" s="55">
         <v>48</v>
       </c>
-      <c r="B50" s="62">
+      <c r="B50" s="56">
         <v>2.6165099999999998E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="61">
+      <c r="A51" s="55">
         <v>49</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="56">
         <v>2.88704E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="61">
+      <c r="A52" s="55">
         <v>50</v>
       </c>
-      <c r="B52" s="62">
+      <c r="B52" s="56">
         <v>3.21229E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="61">
+      <c r="A53" s="55">
         <v>51</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B53" s="56">
         <v>3.59472E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="61">
+      <c r="A54" s="55">
         <v>52</v>
       </c>
-      <c r="B54" s="62">
+      <c r="B54" s="56">
         <v>4.0421700000000003E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="61">
+      <c r="A55" s="55">
         <v>53</v>
       </c>
-      <c r="B55" s="62">
+      <c r="B55" s="56">
         <v>4.5589599999999999E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="61">
+      <c r="A56" s="55">
         <v>54</v>
       </c>
-      <c r="B56" s="62">
+      <c r="B56" s="56">
         <v>5.1300900000000003E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="61">
+      <c r="A57" s="55">
         <v>55</v>
       </c>
-      <c r="B57" s="62">
+      <c r="B57" s="56">
         <v>5.7192299999999996E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="61">
+      <c r="A58" s="55">
         <v>56</v>
       </c>
-      <c r="B58" s="62">
+      <c r="B58" s="56">
         <v>6.3982099999999997E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="61">
+      <c r="A59" s="55">
         <v>57</v>
       </c>
-      <c r="B59" s="62">
+      <c r="B59" s="56">
         <v>7.16828E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="61">
+      <c r="A60" s="55">
         <v>58</v>
       </c>
-      <c r="B60" s="62">
+      <c r="B60" s="56">
         <v>7.7938399999999998E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="61">
+      <c r="A61" s="55">
         <v>59</v>
       </c>
-      <c r="B61" s="62">
+      <c r="B61" s="56">
         <v>8.7809600000000008E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="61">
+      <c r="A62" s="55">
         <v>60</v>
       </c>
-      <c r="B62" s="62">
+      <c r="B62" s="56">
         <v>9.6014399999999993E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="61">
+      <c r="A63" s="55">
         <v>61</v>
       </c>
-      <c r="B63" s="62">
+      <c r="B63" s="56">
         <v>1.065847E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="61">
+      <c r="A64" s="55">
         <v>62</v>
       </c>
-      <c r="B64" s="62">
+      <c r="B64" s="56">
         <v>1.17868E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="61">
+      <c r="A65" s="55">
         <v>63</v>
       </c>
-      <c r="B65" s="62">
+      <c r="B65" s="56">
         <v>1.2912379999999999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="61">
+      <c r="A66" s="55">
         <v>64</v>
       </c>
-      <c r="B66" s="62">
+      <c r="B66" s="56">
         <v>1.410404E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="61">
+      <c r="A67" s="55">
         <v>65</v>
       </c>
-      <c r="B67" s="62">
+      <c r="B67" s="56">
         <v>1.5255589999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A68" s="61">
+      <c r="A68" s="55">
         <v>66</v>
       </c>
-      <c r="B68" s="62">
+      <c r="B68" s="56">
         <v>1.6655489999999998E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A69" s="61">
+      <c r="A69" s="55">
         <v>67</v>
       </c>
-      <c r="B69" s="62">
+      <c r="B69" s="56">
         <v>1.7938610000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A70" s="61">
+      <c r="A70" s="55">
         <v>68</v>
       </c>
-      <c r="B70" s="62">
+      <c r="B70" s="56">
         <v>1.9415080000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A71" s="61">
+      <c r="A71" s="55">
         <v>69</v>
       </c>
-      <c r="B71" s="62">
+      <c r="B71" s="56">
         <v>2.072974E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A72" s="61">
+      <c r="A72" s="55">
         <v>70</v>
       </c>
-      <c r="B72" s="62">
+      <c r="B72" s="56">
         <v>2.2640299999999999E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A73" s="61">
+      <c r="A73" s="55">
         <v>71</v>
       </c>
-      <c r="B73" s="62">
+      <c r="B73" s="56">
         <v>2.431703E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A74" s="61">
+      <c r="A74" s="55">
         <v>72</v>
       </c>
-      <c r="B74" s="62">
+      <c r="B74" s="56">
         <v>2.63784E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A75" s="61">
+      <c r="A75" s="55">
         <v>73</v>
       </c>
-      <c r="B75" s="62">
+      <c r="B75" s="56">
         <v>2.8447630000000002E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A76" s="61">
+      <c r="A76" s="55">
         <v>74</v>
       </c>
-      <c r="B76" s="62">
+      <c r="B76" s="56">
         <v>3.1225280000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A77" s="61">
+      <c r="A77" s="55">
         <v>75</v>
       </c>
-      <c r="B77" s="62">
+      <c r="B77" s="56">
         <v>3.3905560000000001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A78" s="61">
+      <c r="A78" s="55">
         <v>76</v>
       </c>
-      <c r="B78" s="62">
+      <c r="B78" s="56">
         <v>3.6729409999999997E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A79" s="61">
+      <c r="A79" s="55">
         <v>77</v>
       </c>
-      <c r="B79" s="62">
+      <c r="B79" s="56">
         <v>4.0494179999999998E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A80" s="61">
+      <c r="A80" s="55">
         <v>78</v>
       </c>
-      <c r="B80" s="62">
+      <c r="B80" s="56">
         <v>4.4564779999999998E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A81" s="61">
+      <c r="A81" s="55">
         <v>79</v>
       </c>
-      <c r="B81" s="62">
+      <c r="B81" s="56">
         <v>4.9926909999999998E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A82" s="61">
+      <c r="A82" s="55">
         <v>80</v>
       </c>
-      <c r="B82" s="62">
+      <c r="B82" s="56">
         <v>5.5436880000000001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A83" s="61">
+      <c r="A83" s="55">
         <v>81</v>
       </c>
-      <c r="B83" s="62">
+      <c r="B83" s="56">
         <v>6.2508079999999994E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A84" s="61">
+      <c r="A84" s="55">
         <v>82</v>
       </c>
-      <c r="B84" s="62">
+      <c r="B84" s="56">
         <v>7.0931690000000006E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A85" s="61">
+      <c r="A85" s="55">
         <v>83</v>
       </c>
-      <c r="B85" s="62">
+      <c r="B85" s="56">
         <v>7.9400330000000005E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A86" s="61">
+      <c r="A86" s="55">
         <v>84</v>
       </c>
-      <c r="B86" s="62">
+      <c r="B86" s="56">
         <v>9.0722170000000005E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A87" s="61">
+      <c r="A87" s="55">
         <v>85</v>
       </c>
-      <c r="B87" s="62">
+      <c r="B87" s="56">
         <v>0.10193961</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A88" s="61">
+      <c r="A88" s="55">
         <v>86</v>
       </c>
-      <c r="B88" s="62">
+      <c r="B88" s="56">
         <v>0.11598863</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A89" s="61">
+      <c r="A89" s="55">
         <v>87</v>
       </c>
-      <c r="B89" s="62">
+      <c r="B89" s="56">
         <v>0.12915229</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A90" s="61">
+      <c r="A90" s="55">
         <v>88</v>
       </c>
-      <c r="B90" s="62">
+      <c r="B90" s="56">
         <v>0.14739521999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A91" s="61">
+      <c r="A91" s="55">
         <v>89</v>
       </c>
-      <c r="B91" s="62">
+      <c r="B91" s="56">
         <v>0.16401563</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A92" s="61">
+      <c r="A92" s="55">
         <v>90</v>
       </c>
-      <c r="B92" s="62">
+      <c r="B92" s="56">
         <v>0.18212626000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A93" s="61">
+      <c r="A93" s="55">
         <v>91</v>
       </c>
-      <c r="B93" s="62">
+      <c r="B93" s="56">
         <v>0.19780839</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A94" s="61">
+      <c r="A94" s="55">
         <v>92</v>
       </c>
-      <c r="B94" s="62">
+      <c r="B94" s="56">
         <v>0.22387138000000001</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A95" s="61">
+      <c r="A95" s="55">
         <v>93</v>
       </c>
-      <c r="B95" s="62">
+      <c r="B95" s="56">
         <v>0.24268300000000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A96" s="61">
+      <c r="A96" s="55">
         <v>94</v>
       </c>
-      <c r="B96" s="62">
+      <c r="B96" s="56">
         <v>0.26751179000000003</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A97" s="61">
+      <c r="A97" s="55">
         <v>95</v>
       </c>
-      <c r="B97" s="62">
+      <c r="B97" s="56">
         <v>0.28772291999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A98" s="61">
+      <c r="A98" s="55">
         <v>96</v>
       </c>
-      <c r="B98" s="62">
+      <c r="B98" s="56">
         <v>0.31492606000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A99" s="61">
+      <c r="A99" s="55">
         <v>97</v>
       </c>
-      <c r="B99" s="62">
+      <c r="B99" s="56">
         <v>0.34184745</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A100" s="61">
+      <c r="A100" s="55">
         <v>98</v>
       </c>
-      <c r="B100" s="62">
+      <c r="B100" s="56">
         <v>0.35839259000000001</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A101" s="61">
+      <c r="A101" s="55">
         <v>99</v>
       </c>
-      <c r="B101" s="62">
+      <c r="B101" s="56">
         <v>0.38163329000000001</v>
       </c>
     </row>
@@ -5633,815 +5642,815 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="58"/>
-    <col min="3" max="16384" width="9.06640625" style="49"/>
+    <col min="1" max="2" width="9.06640625" style="52"/>
+    <col min="3" max="16384" width="9.06640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="54" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="59">
+      <c r="A2" s="53">
         <v>0</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="56">
         <v>2.9219599999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="59">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="56">
         <v>2.3368E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="59">
+      <c r="A4" s="53">
         <v>2</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="56">
         <v>1.2575999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="59">
+      <c r="A5" s="53">
         <v>3</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="56">
         <v>9.4489999999999998E-5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="59">
+      <c r="A6" s="53">
         <v>4</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="56">
         <v>1.0217000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="59">
+      <c r="A7" s="53">
         <v>5</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="56">
         <v>8.7390000000000002E-5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="59">
+      <c r="A8" s="53">
         <v>6</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="56">
         <v>8.4640000000000003E-5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="59">
+      <c r="A9" s="53">
         <v>7</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="56">
         <v>5.6570000000000002E-5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="59">
+      <c r="A10" s="53">
         <v>8</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="56">
         <v>6.5759999999999994E-5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="59">
+      <c r="A11" s="53">
         <v>9</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="56">
         <v>4.9469999999999999E-5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="59">
+      <c r="A12" s="53">
         <v>10</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="56">
         <v>5.5050000000000003E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="59">
+      <c r="A13" s="53">
         <v>11</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="56">
         <v>8.3280000000000002E-5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="59">
+      <c r="A14" s="53">
         <v>12</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="56">
         <v>7.2050000000000003E-5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="59">
+      <c r="A15" s="53">
         <v>13</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="56">
         <v>9.0019999999999995E-5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="59">
+      <c r="A16" s="53">
         <v>14</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="56">
         <v>9.2659999999999997E-5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="59">
+      <c r="A17" s="53">
         <v>15</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="56">
         <v>1.1964E-4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="59">
+      <c r="A18" s="53">
         <v>16</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="56">
         <v>1.4467000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="59">
+      <c r="A19" s="53">
         <v>17</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="56">
         <v>1.2627E-4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="59">
+      <c r="A20" s="53">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="56">
         <v>1.8218999999999999E-4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="59">
+      <c r="A21" s="53">
         <v>19</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="56">
         <v>1.6746999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="59">
+      <c r="A22" s="53">
         <v>20</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="56">
         <v>1.7982999999999999E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="59">
+      <c r="A23" s="53">
         <v>21</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="56">
         <v>1.7265E-4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="59">
+      <c r="A24" s="53">
         <v>22</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="56">
         <v>1.6652E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="59">
+      <c r="A25" s="53">
         <v>23</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="56">
         <v>1.6328E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="59">
+      <c r="A26" s="53">
         <v>24</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="56">
         <v>1.8476000000000001E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="59">
+      <c r="A27" s="53">
         <v>25</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="56">
         <v>1.8993999999999999E-4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="59">
+      <c r="A28" s="53">
         <v>26</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="56">
         <v>1.7653999999999999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="59">
+      <c r="A29" s="53">
         <v>27</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="56">
         <v>2.1274999999999999E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="59">
+      <c r="A30" s="53">
         <v>28</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="56">
         <v>2.3126000000000001E-4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="59">
+      <c r="A31" s="53">
         <v>29</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="56">
         <v>2.6071999999999998E-4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="59">
+      <c r="A32" s="53">
         <v>30</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="56">
         <v>3.0518E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="59">
+      <c r="A33" s="53">
         <v>31</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="56">
         <v>3.2184E-4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="59">
+      <c r="A34" s="53">
         <v>32</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="56">
         <v>3.3652999999999998E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="59">
+      <c r="A35" s="53">
         <v>33</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="56">
         <v>3.5100000000000002E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="59">
+      <c r="A36" s="53">
         <v>34</v>
       </c>
-      <c r="B36" s="62">
+      <c r="B36" s="56">
         <v>4.0267999999999999E-4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="59">
+      <c r="A37" s="53">
         <v>35</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="56">
         <v>4.4462000000000001E-4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="59">
+      <c r="A38" s="53">
         <v>36</v>
       </c>
-      <c r="B38" s="62">
+      <c r="B38" s="56">
         <v>4.6590999999999999E-4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="59">
+      <c r="A39" s="53">
         <v>37</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="56">
         <v>4.9945999999999996E-4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="59">
+      <c r="A40" s="53">
         <v>38</v>
       </c>
-      <c r="B40" s="62">
+      <c r="B40" s="56">
         <v>5.7339000000000001E-4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="59">
+      <c r="A41" s="53">
         <v>39</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="56">
         <v>6.3668000000000004E-4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="59">
+      <c r="A42" s="53">
         <v>40</v>
       </c>
-      <c r="B42" s="62">
+      <c r="B42" s="56">
         <v>6.4835000000000001E-4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="59">
+      <c r="A43" s="53">
         <v>41</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="56">
         <v>7.0845999999999995E-4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="59">
+      <c r="A44" s="53">
         <v>42</v>
       </c>
-      <c r="B44" s="62">
+      <c r="B44" s="56">
         <v>7.8722999999999998E-4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="59">
+      <c r="A45" s="53">
         <v>43</v>
       </c>
-      <c r="B45" s="62">
+      <c r="B45" s="56">
         <v>8.8792999999999999E-4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="59">
+      <c r="A46" s="53">
         <v>44</v>
       </c>
-      <c r="B46" s="62">
+      <c r="B46" s="56">
         <v>9.4052999999999997E-4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="59">
+      <c r="A47" s="53">
         <v>45</v>
       </c>
-      <c r="B47" s="62">
+      <c r="B47" s="56">
         <v>1.10081E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="59">
+      <c r="A48" s="53">
         <v>46</v>
       </c>
-      <c r="B48" s="62">
+      <c r="B48" s="56">
         <v>1.2116E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="59">
+      <c r="A49" s="53">
         <v>47</v>
       </c>
-      <c r="B49" s="62">
+      <c r="B49" s="56">
         <v>1.32698E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="59">
+      <c r="A50" s="53">
         <v>48</v>
       </c>
-      <c r="B50" s="62">
+      <c r="B50" s="56">
         <v>1.50332E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="59">
+      <c r="A51" s="53">
         <v>49</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="56">
         <v>1.69889E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="59">
+      <c r="A52" s="53">
         <v>50</v>
       </c>
-      <c r="B52" s="62">
+      <c r="B52" s="56">
         <v>1.8497100000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="59">
+      <c r="A53" s="53">
         <v>51</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B53" s="56">
         <v>2.12386E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="59">
+      <c r="A54" s="53">
         <v>52</v>
       </c>
-      <c r="B54" s="62">
+      <c r="B54" s="56">
         <v>2.2722200000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="59">
+      <c r="A55" s="53">
         <v>53</v>
       </c>
-      <c r="B55" s="62">
+      <c r="B55" s="56">
         <v>2.5429099999999998E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="59">
+      <c r="A56" s="53">
         <v>54</v>
       </c>
-      <c r="B56" s="62">
+      <c r="B56" s="56">
         <v>2.81153E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="59">
+      <c r="A57" s="53">
         <v>55</v>
       </c>
-      <c r="B57" s="62">
+      <c r="B57" s="56">
         <v>3.1398300000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="59">
+      <c r="A58" s="53">
         <v>56</v>
       </c>
-      <c r="B58" s="62">
+      <c r="B58" s="56">
         <v>3.51118E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="59">
+      <c r="A59" s="53">
         <v>57</v>
       </c>
-      <c r="B59" s="62">
+      <c r="B59" s="56">
         <v>3.84915E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="59">
+      <c r="A60" s="53">
         <v>58</v>
       </c>
-      <c r="B60" s="62">
+      <c r="B60" s="56">
         <v>4.2040799999999998E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="59">
+      <c r="A61" s="53">
         <v>59</v>
       </c>
-      <c r="B61" s="62">
+      <c r="B61" s="56">
         <v>4.6223799999999997E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="59">
+      <c r="A62" s="53">
         <v>60</v>
       </c>
-      <c r="B62" s="62">
+      <c r="B62" s="56">
         <v>5.1550600000000004E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="59">
+      <c r="A63" s="53">
         <v>61</v>
       </c>
-      <c r="B63" s="62">
+      <c r="B63" s="56">
         <v>5.7031299999999998E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="59">
+      <c r="A64" s="53">
         <v>62</v>
       </c>
-      <c r="B64" s="62">
+      <c r="B64" s="56">
         <v>6.1371000000000004E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="59">
+      <c r="A65" s="53">
         <v>63</v>
       </c>
-      <c r="B65" s="62">
+      <c r="B65" s="56">
         <v>6.7596799999999997E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="59">
+      <c r="A66" s="53">
         <v>64</v>
       </c>
-      <c r="B66" s="62">
+      <c r="B66" s="56">
         <v>7.40663E-3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="59">
+      <c r="A67" s="53">
         <v>65</v>
       </c>
-      <c r="B67" s="62">
+      <c r="B67" s="56">
         <v>7.9419999999999994E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A68" s="59">
+      <c r="A68" s="53">
         <v>66</v>
       </c>
-      <c r="B68" s="62">
+      <c r="B68" s="56">
         <v>8.7513000000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A69" s="59">
+      <c r="A69" s="53">
         <v>67</v>
       </c>
-      <c r="B69" s="62">
+      <c r="B69" s="56">
         <v>9.4249099999999999E-3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A70" s="59">
+      <c r="A70" s="53">
         <v>68</v>
       </c>
-      <c r="B70" s="62">
+      <c r="B70" s="56">
         <v>1.02998E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A71" s="59">
+      <c r="A71" s="53">
         <v>69</v>
       </c>
-      <c r="B71" s="62">
+      <c r="B71" s="56">
         <v>1.143452E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A72" s="59">
+      <c r="A72" s="53">
         <v>70</v>
       </c>
-      <c r="B72" s="62">
+      <c r="B72" s="56">
         <v>1.2717529999999999E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A73" s="59">
+      <c r="A73" s="53">
         <v>71</v>
       </c>
-      <c r="B73" s="62">
+      <c r="B73" s="56">
         <v>1.35938E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A74" s="59">
+      <c r="A74" s="53">
         <v>72</v>
       </c>
-      <c r="B74" s="62">
+      <c r="B74" s="56">
         <v>1.505951E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A75" s="59">
+      <c r="A75" s="53">
         <v>73</v>
       </c>
-      <c r="B75" s="62">
+      <c r="B75" s="56">
         <v>1.6510520000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A76" s="59">
+      <c r="A76" s="53">
         <v>74</v>
       </c>
-      <c r="B76" s="62">
+      <c r="B76" s="56">
         <v>1.8136969999999999E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A77" s="59">
+      <c r="A77" s="53">
         <v>75</v>
       </c>
-      <c r="B77" s="62">
+      <c r="B77" s="56">
         <v>1.9888510000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A78" s="59">
+      <c r="A78" s="53">
         <v>76</v>
       </c>
-      <c r="B78" s="62">
+      <c r="B78" s="56">
         <v>2.1450540000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A79" s="59">
+      <c r="A79" s="53">
         <v>77</v>
       </c>
-      <c r="B79" s="62">
+      <c r="B79" s="56">
         <v>2.388204E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A80" s="59">
+      <c r="A80" s="53">
         <v>78</v>
       </c>
-      <c r="B80" s="62">
+      <c r="B80" s="56">
         <v>2.6954269999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A81" s="59">
+      <c r="A81" s="53">
         <v>79</v>
       </c>
-      <c r="B81" s="62">
+      <c r="B81" s="56">
         <v>3.1036230000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A82" s="59">
+      <c r="A82" s="53">
         <v>80</v>
       </c>
-      <c r="B82" s="62">
+      <c r="B82" s="56">
         <v>3.5510130000000001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A83" s="59">
+      <c r="A83" s="53">
         <v>81</v>
       </c>
-      <c r="B83" s="62">
+      <c r="B83" s="56">
         <v>4.1177850000000002E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A84" s="59">
+      <c r="A84" s="53">
         <v>82</v>
       </c>
-      <c r="B84" s="62">
+      <c r="B84" s="56">
         <v>4.8459170000000003E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A85" s="59">
+      <c r="A85" s="53">
         <v>83</v>
       </c>
-      <c r="B85" s="62">
+      <c r="B85" s="56">
         <v>5.5609859999999997E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A86" s="59">
+      <c r="A86" s="53">
         <v>84</v>
       </c>
-      <c r="B86" s="62">
+      <c r="B86" s="56">
         <v>6.4454689999999995E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A87" s="59">
+      <c r="A87" s="53">
         <v>85</v>
       </c>
-      <c r="B87" s="62">
+      <c r="B87" s="56">
         <v>7.4184340000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A88" s="59">
+      <c r="A88" s="53">
         <v>86</v>
       </c>
-      <c r="B88" s="62">
+      <c r="B88" s="56">
         <v>8.6146959999999995E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A89" s="59">
+      <c r="A89" s="53">
         <v>87</v>
       </c>
-      <c r="B89" s="62">
+      <c r="B89" s="56">
         <v>9.9019979999999994E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A90" s="59">
+      <c r="A90" s="53">
         <v>88</v>
       </c>
-      <c r="B90" s="62">
+      <c r="B90" s="56">
         <v>0.11367326</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A91" s="59">
+      <c r="A91" s="53">
         <v>89</v>
       </c>
-      <c r="B91" s="62">
+      <c r="B91" s="56">
         <v>0.12884161</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A92" s="59">
+      <c r="A92" s="53">
         <v>90</v>
       </c>
-      <c r="B92" s="62">
+      <c r="B92" s="56">
         <v>0.14724068000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A93" s="59">
+      <c r="A93" s="53">
         <v>91</v>
       </c>
-      <c r="B93" s="62">
+      <c r="B93" s="56">
         <v>0.16592309</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A94" s="59">
+      <c r="A94" s="53">
         <v>92</v>
       </c>
-      <c r="B94" s="62">
+      <c r="B94" s="56">
         <v>0.18803104000000001</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A95" s="59">
+      <c r="A95" s="53">
         <v>93</v>
       </c>
-      <c r="B95" s="62">
+      <c r="B95" s="56">
         <v>0.2092831</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A96" s="59">
+      <c r="A96" s="53">
         <v>94</v>
       </c>
-      <c r="B96" s="62">
+      <c r="B96" s="56">
         <v>0.22844269</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A97" s="59">
+      <c r="A97" s="53">
         <v>95</v>
       </c>
-      <c r="B97" s="62">
+      <c r="B97" s="56">
         <v>0.25394371999999998</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A98" s="59">
+      <c r="A98" s="53">
         <v>96</v>
       </c>
-      <c r="B98" s="62">
+      <c r="B98" s="56">
         <v>0.27814902000000002</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A99" s="59">
+      <c r="A99" s="53">
         <v>97</v>
       </c>
-      <c r="B99" s="62">
+      <c r="B99" s="56">
         <v>0.29412633999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A100" s="59">
+      <c r="A100" s="53">
         <v>98</v>
       </c>
-      <c r="B100" s="62">
+      <c r="B100" s="56">
         <v>0.31751880999999998</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A101" s="59">
+      <c r="A101" s="53">
         <v>99</v>
       </c>
-      <c r="B101" s="62">
+      <c r="B101" s="56">
         <v>0.34081861000000002</v>
       </c>
     </row>
@@ -6460,19 +6469,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="55"/>
+    <col min="1" max="2" width="9.06640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="57" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="55">
+      <c r="A2" s="49">
         <v>0</v>
       </c>
       <c r="B2" s="20">
@@ -6480,7 +6489,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="20">
@@ -6488,7 +6497,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="49" t="s">
         <v>200</v>
       </c>
       <c r="B4" s="20">
@@ -6496,7 +6505,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="49" t="s">
         <v>201</v>
       </c>
       <c r="B5" s="20">
@@ -6504,7 +6513,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>202</v>
       </c>
       <c r="B6" s="20">
@@ -6512,7 +6521,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="49" t="s">
         <v>203</v>
       </c>
       <c r="B7" s="20">
@@ -6520,7 +6529,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="49" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="20">
@@ -6528,7 +6537,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="49" t="s">
         <v>205</v>
       </c>
       <c r="B9" s="20">
@@ -6536,7 +6545,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="49" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="20">
@@ -6544,7 +6553,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>207</v>
       </c>
       <c r="B11" s="20">
@@ -6552,7 +6561,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="49" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="20">
@@ -6560,7 +6569,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="49" t="s">
         <v>209</v>
       </c>
       <c r="B13" s="20">
@@ -6568,7 +6577,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="49" t="s">
         <v>210</v>
       </c>
       <c r="B14" s="20">
@@ -6576,7 +6585,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="49" t="s">
         <v>211</v>
       </c>
       <c r="B15" s="20">
@@ -6584,7 +6593,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B16" s="20">
@@ -6592,7 +6601,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="49" t="s">
         <v>213</v>
       </c>
       <c r="B17" s="20">
@@ -6600,7 +6609,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="49" t="s">
         <v>214</v>
       </c>
       <c r="B18" s="20">
@@ -6608,7 +6617,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="49" t="s">
         <v>215</v>
       </c>
       <c r="B19" s="20">
@@ -6616,7 +6625,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="49" t="s">
         <v>216</v>
       </c>
       <c r="B20" s="20">
@@ -6624,7 +6633,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="49" t="s">
         <v>217</v>
       </c>
       <c r="B21" s="20">
@@ -6632,7 +6641,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B22" s="20">
@@ -6640,7 +6649,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="49" t="s">
         <v>219</v>
       </c>
       <c r="B23" s="20">
@@ -6648,7 +6657,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>220</v>
       </c>
       <c r="B24" s="20">
@@ -6656,7 +6665,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="49" t="s">
         <v>221</v>
       </c>
       <c r="B25" s="20">
@@ -6664,7 +6673,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="49" t="s">
         <v>222</v>
       </c>
       <c r="B26" s="20">
@@ -6672,7 +6681,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="49" t="s">
         <v>223</v>
       </c>
       <c r="B27" s="20">
@@ -6680,7 +6689,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="49" t="s">
         <v>224</v>
       </c>
       <c r="B28" s="20">
@@ -6688,7 +6697,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="49" t="s">
         <v>225</v>
       </c>
       <c r="B29" s="20">
@@ -6696,7 +6705,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="49" t="s">
         <v>226</v>
       </c>
       <c r="B30" s="20">
@@ -6704,7 +6713,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="49" t="s">
         <v>227</v>
       </c>
       <c r="B31" s="20">
@@ -6712,7 +6721,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="49" t="s">
         <v>228</v>
       </c>
       <c r="B32" s="20">
@@ -6720,7 +6729,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="49" t="s">
         <v>229</v>
       </c>
       <c r="B33" s="20">
@@ -6728,7 +6737,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="49" t="s">
         <v>230</v>
       </c>
       <c r="B34" s="20">
@@ -6736,7 +6745,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="49" t="s">
         <v>231</v>
       </c>
       <c r="B35" s="20">
@@ -6744,7 +6753,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="49" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="20">
@@ -6752,7 +6761,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="49" t="s">
         <v>233</v>
       </c>
       <c r="B37" s="20">
@@ -6760,7 +6769,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="49" t="s">
         <v>234</v>
       </c>
       <c r="B38" s="20">
@@ -6768,7 +6777,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="49" t="s">
         <v>235</v>
       </c>
       <c r="B39" s="20">
@@ -6776,7 +6785,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="49" t="s">
         <v>236</v>
       </c>
       <c r="B40" s="20">
@@ -6784,7 +6793,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="49" t="s">
         <v>237</v>
       </c>
       <c r="B41" s="20">
@@ -6792,7 +6801,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="49" t="s">
         <v>238</v>
       </c>
       <c r="B42" s="20">
@@ -6800,7 +6809,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="49" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="20">
@@ -6808,7 +6817,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="49" t="s">
         <v>240</v>
       </c>
       <c r="B44" s="20">
@@ -6816,7 +6825,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="49" t="s">
         <v>241</v>
       </c>
       <c r="B45" s="20">
@@ -6824,7 +6833,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="49" t="s">
         <v>242</v>
       </c>
       <c r="B46" s="20">
@@ -6832,7 +6841,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="49" t="s">
         <v>243</v>
       </c>
       <c r="B47" s="20">
@@ -6840,7 +6849,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="49" t="s">
         <v>244</v>
       </c>
       <c r="B48" s="20">
@@ -6848,7 +6857,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="49" t="s">
         <v>245</v>
       </c>
       <c r="B49" s="20">
@@ -6856,7 +6865,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="49" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="20">
@@ -6864,7 +6873,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="49" t="s">
         <v>247</v>
       </c>
       <c r="B51" s="20">
@@ -6872,7 +6881,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="49" t="s">
         <v>248</v>
       </c>
       <c r="B52" s="20">
@@ -6880,7 +6889,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="49" t="s">
         <v>249</v>
       </c>
       <c r="B53" s="20">
@@ -6888,7 +6897,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="49" t="s">
         <v>250</v>
       </c>
       <c r="B54" s="20">
@@ -6896,7 +6905,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="49" t="s">
         <v>251</v>
       </c>
       <c r="B55" s="20">
@@ -6904,7 +6913,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="49" t="s">
         <v>252</v>
       </c>
       <c r="B56" s="20">
@@ -6912,7 +6921,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="49" t="s">
         <v>253</v>
       </c>
       <c r="B57" s="20">
@@ -6920,7 +6929,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="49" t="s">
         <v>254</v>
       </c>
       <c r="B58" s="20">
@@ -6928,7 +6937,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="49" t="s">
         <v>255</v>
       </c>
       <c r="B59" s="20">
@@ -6936,7 +6945,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="49" t="s">
         <v>256</v>
       </c>
       <c r="B60" s="20">
@@ -6944,7 +6953,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="49" t="s">
         <v>257</v>
       </c>
       <c r="B61" s="20">
@@ -6952,7 +6961,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="49" t="s">
         <v>258</v>
       </c>
       <c r="B62" s="20">
@@ -6960,7 +6969,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="49" t="s">
         <v>259</v>
       </c>
       <c r="B63" s="20">
@@ -6968,7 +6977,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="49" t="s">
         <v>260</v>
       </c>
       <c r="B64" s="20">
@@ -6976,7 +6985,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="49" t="s">
         <v>261</v>
       </c>
       <c r="B65" s="20">
@@ -6984,7 +6993,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="49" t="s">
         <v>262</v>
       </c>
       <c r="B66" s="20">
@@ -6992,7 +7001,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="49" t="s">
         <v>263</v>
       </c>
       <c r="B67" s="20">
@@ -7000,7 +7009,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="49" t="s">
         <v>264</v>
       </c>
       <c r="B68" s="20">
@@ -7008,7 +7017,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="49" t="s">
         <v>265</v>
       </c>
       <c r="B69" s="20">
@@ -7016,7 +7025,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="49" t="s">
         <v>266</v>
       </c>
       <c r="B70" s="20">
@@ -7024,7 +7033,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="49" t="s">
         <v>267</v>
       </c>
       <c r="B71" s="20">
@@ -7032,7 +7041,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="49" t="s">
         <v>268</v>
       </c>
       <c r="B72" s="20">
@@ -7040,7 +7049,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="49" t="s">
         <v>269</v>
       </c>
       <c r="B73" s="20">
@@ -7048,7 +7057,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="49" t="s">
         <v>270</v>
       </c>
       <c r="B74" s="20">
@@ -7056,7 +7065,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="49" t="s">
         <v>271</v>
       </c>
       <c r="B75" s="20">
@@ -7064,7 +7073,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="49" t="s">
         <v>272</v>
       </c>
       <c r="B76" s="20">
@@ -7072,7 +7081,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="49" t="s">
         <v>273</v>
       </c>
       <c r="B77" s="20">
@@ -7080,7 +7089,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="49" t="s">
         <v>274</v>
       </c>
       <c r="B78" s="20">
@@ -7088,7 +7097,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="49" t="s">
         <v>275</v>
       </c>
       <c r="B79" s="20">
@@ -7096,7 +7105,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="49" t="s">
         <v>276</v>
       </c>
       <c r="B80" s="20">
@@ -7104,7 +7113,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="49" t="s">
         <v>277</v>
       </c>
       <c r="B81" s="20">
@@ -7112,7 +7121,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="49" t="s">
         <v>278</v>
       </c>
       <c r="B82" s="20">
@@ -7120,7 +7129,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="49" t="s">
         <v>279</v>
       </c>
       <c r="B83" s="20">
@@ -7128,7 +7137,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="49" t="s">
         <v>280</v>
       </c>
       <c r="B84" s="20">
@@ -7136,7 +7145,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="49" t="s">
         <v>281</v>
       </c>
       <c r="B85" s="20">
@@ -7144,7 +7153,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="49" t="s">
         <v>282</v>
       </c>
       <c r="B86" s="20">
@@ -7167,10 +7176,10 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="57" t="s">
         <v>110</v>
       </c>
     </row>
@@ -10934,8 +10943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE84F34-DF67-416E-852C-7462335190A0}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11066,12 +11075,12 @@
         <f>Q2*H2/100</f>
         <v>307.281632</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="13">
         <f>P2*$F2*1000000000/$G2</f>
         <v>1455.1680527643539</v>
       </c>
-      <c r="T2" s="17">
-        <f>R2*$F2*1000000000/$G2</f>
+      <c r="T2" s="13">
+        <f t="shared" ref="T2:T7" si="0">R2*$F2*1000000000/$G2</f>
         <v>3075.0721115020306</v>
       </c>
     </row>
@@ -11101,11 +11110,11 @@
         <v>384.94</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I7" si="0">H3*F3</f>
+        <f t="shared" ref="I3:I7" si="1">H3*F3</f>
         <v>261.75920000000002</v>
       </c>
       <c r="J3" s="18">
-        <f t="shared" ref="J3:J6" si="1">1000000000 *I3/G3</f>
+        <f t="shared" ref="J3:J6" si="2">1000000000 *I3/G3</f>
         <v>52904.351889392063</v>
       </c>
       <c r="K3">
@@ -11121,7 +11130,7 @@
         <v>-3</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="2">(M3-N3)-($M$6-$N$6)</f>
+        <f t="shared" ref="O3:O6" si="3">(M3-N3)-($M$6-$N$6)</f>
         <v>0.39999999999999947</v>
       </c>
       <c r="P3">
@@ -11136,12 +11145,12 @@
         <f>Q3*H3/100</f>
         <v>24.25122</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="13">
         <f>P3*$F3*1000000000/$G3</f>
         <v>211.61740755756799</v>
       </c>
-      <c r="T3" s="17">
-        <f>R3*$F3*1000000000/$G3</f>
+      <c r="T3" s="13">
+        <f t="shared" si="0"/>
         <v>3332.9741690317001</v>
       </c>
     </row>
@@ -11171,11 +11180,11 @@
         <v>1397.87</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>950.55160000000001</v>
       </c>
       <c r="J4" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20329.170538730345</v>
       </c>
       <c r="K4">
@@ -11191,7 +11200,7 @@
         <v>-12.8</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
       <c r="P4">
@@ -11206,12 +11215,12 @@
         <f>Q4*H4/100</f>
         <v>201.29327999999998</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="13">
         <f>P4*$F4*1000000000/$G4</f>
         <v>1727.9794957920794</v>
       </c>
-      <c r="T4" s="17">
-        <f>R4*$F4*1000000000/$G4</f>
+      <c r="T4" s="13">
+        <f t="shared" si="0"/>
         <v>2927.4005575771694</v>
       </c>
     </row>
@@ -11241,11 +11250,11 @@
         <v>3863.3440000000001</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2627.0739200000003</v>
       </c>
       <c r="J5" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31337.376588097955</v>
       </c>
       <c r="K5">
@@ -11261,7 +11270,7 @@
         <v>-6</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
       <c r="P5">
@@ -11276,12 +11285,12 @@
         <f>Q5*H5/100</f>
         <v>274.29742399999998</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="13">
         <f>P5*$F5*1000000000/$G5</f>
         <v>376.04851905717521</v>
       </c>
-      <c r="T5" s="17">
-        <f>R5*$F5*1000000000/$G5</f>
+      <c r="T5" s="13">
+        <f t="shared" si="0"/>
         <v>2224.9537377549545</v>
       </c>
     </row>
@@ -11311,11 +11320,11 @@
         <v>528.92899999999997</v>
       </c>
       <c r="I6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>359.67171999999999</v>
       </c>
       <c r="J6" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35573.723065523009</v>
       </c>
       <c r="K6">
@@ -11331,27 +11340,27 @@
         <v>-4.7</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6" si="3">O6*H6/100</f>
+        <f t="shared" ref="P6" si="4">O6*H6/100</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6" si="4">M6-N6</f>
+        <f t="shared" ref="Q6" si="5">M6-N6</f>
         <v>5.9</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6" si="5">Q6*H6/100</f>
+        <f t="shared" ref="R6" si="6">Q6*H6/100</f>
         <v>31.206811000000002</v>
       </c>
-      <c r="S6" s="17">
-        <f t="shared" ref="S6" si="6">P6*$F6*1000000000/$G6</f>
+      <c r="S6" s="13">
+        <f t="shared" ref="S6" si="7">P6*$F6*1000000000/$G6</f>
         <v>0</v>
       </c>
-      <c r="T6" s="17">
-        <f>R6*$F6*1000000000/$G6</f>
+      <c r="T6" s="13">
+        <f t="shared" si="0"/>
         <v>2098.8496608658575</v>
       </c>
     </row>
@@ -11378,7 +11387,7 @@
         <v>1629.5319999999999</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1108.08176</v>
       </c>
       <c r="J7" s="13"/>
@@ -11386,7 +11395,7 @@
         <v>2018</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O3:O7" si="7">M7-N7</f>
+        <f t="shared" ref="O7" si="8">M7-N7</f>
         <v>0</v>
       </c>
       <c r="P7">
@@ -11406,7 +11415,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T7" s="17" t="e">
-        <f>R7*$F7*1000000000/$G7</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11442,39 +11451,39 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="41">
+      <c r="C2" s="58">
         <v>41101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="42"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="42"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="59"/>
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="42"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="59"/>
     </row>
     <row r="6" spans="1:3" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="43"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="60"/>
     </row>
     <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
@@ -11506,163 +11515,163 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="58">
         <v>5717</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="42"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="42"/>
+      <c r="C11" s="59"/>
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="42"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="59"/>
     </row>
     <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="59"/>
     </row>
     <row r="14" spans="1:3" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="43"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="60"/>
     </row>
     <row r="15" spans="1:3" ht="39.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="58" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="58">
         <v>9170</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="42"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="42"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="42"/>
+      <c r="C17" s="59"/>
     </row>
     <row r="18" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="42"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="59"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="42"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="42"/>
+      <c r="C19" s="59"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="42"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="59"/>
     </row>
     <row r="21" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="43"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="58" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="58">
         <v>1753</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="42"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="59"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="42"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="59"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="42"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="59"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="42"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="59"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="42"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="42"/>
+      <c r="C27" s="59"/>
     </row>
     <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="42"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="59"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="42"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="42"/>
+      <c r="C29" s="59"/>
     </row>
     <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="42"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="59"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="42"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="42"/>
+      <c r="C31" s="59"/>
     </row>
     <row r="32" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="43"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14184,16 +14193,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="61">
         <v>158401</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="61">
         <v>254120</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="61">
         <v>263602</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -14201,10 +14210,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="66" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
@@ -14261,91 +14270,91 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="65.650000000000006" x14ac:dyDescent="0.45">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="61">
         <v>268659</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="61">
         <v>291583</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="42"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="78.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="42"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="42"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="214.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="58">
         <v>59065</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="58">
         <v>78135</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="66" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="58">
         <v>190713</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="58">
         <v>203500</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="58">
         <v>212158</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -14353,57 +14362,49 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="66" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="58">
         <v>25368</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="58">
         <v>25766</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="185.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="8" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -14416,6 +14417,14 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{C72684A9-19A8-41CA-93B5-6C5DF81030A9}"/>
@@ -19089,864 +19098,864 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="49"/>
+    <col min="1" max="1" width="9.1328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="50">
+      <c r="A2" s="44">
         <v>0</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="45">
         <v>3.32355414977756E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="50">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="45">
         <v>1.8248749608842899E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="50">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="46">
         <v>1.58148764596047E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="50">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="46">
         <v>1.0510854357523099E-4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="50">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="46">
         <v>8.8767015181954204E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="50">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="46">
         <v>8.3142883530828697E-5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="50">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="46">
         <v>7.5383765832640799E-5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="50">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="46">
         <v>5.7746792980256097E-5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="50">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="46">
         <v>3.2620544172759103E-5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="50">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="46">
         <v>1.7321569070645901E-5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="50">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="46">
         <v>3.03113504849203E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="50">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="46">
         <v>7.9239781631207097E-5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="50">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="46">
         <v>9.9407354784225401E-5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="50">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="46">
         <v>9.1357782574566198E-5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="50">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="46">
         <v>1.15218435552084E-4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="50">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="46">
         <v>1.76722605026437E-4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="50">
+      <c r="A18" s="44">
         <v>16</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="46">
         <v>2.5542587056085099E-4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="50">
+      <c r="A19" s="44">
         <v>17</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="46">
         <v>3.3478656772422798E-4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="50">
+      <c r="A20" s="44">
         <v>18</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="46">
         <v>4.04432798640129E-4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="50">
+      <c r="A21" s="44">
         <v>19</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="46">
         <v>4.57660955597365E-4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="50">
+      <c r="A22" s="44">
         <v>20</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="46">
         <v>4.9306408135931304E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="50">
+      <c r="A23" s="44">
         <v>21</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="46">
         <v>5.1400421630817903E-4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="50">
+      <c r="A24" s="44">
         <v>22</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="46">
         <v>5.2695663272950299E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="50">
+      <c r="A25" s="44">
         <v>23</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="46">
         <v>5.3924005154417601E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="50">
+      <c r="A26" s="44">
         <v>24</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="46">
         <v>5.5336056492748405E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="50">
+      <c r="A27" s="44">
         <v>25</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="46">
         <v>5.6943702461353799E-4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="50">
+      <c r="A28" s="44">
         <v>26</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="46">
         <v>5.8759338383986503E-4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="50">
+      <c r="A29" s="44">
         <v>27</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="46">
         <v>6.0797267260402903E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="50">
+      <c r="A30" s="44">
         <v>28</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="46">
         <v>6.3073865561866704E-4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="50">
+      <c r="A31" s="44">
         <v>29</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="46">
         <v>6.5607776778025596E-4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="50">
+      <c r="A32" s="44">
         <v>30</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="46">
         <v>6.8420135433627295E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="50">
+      <c r="A33" s="44">
         <v>31</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B33" s="46">
         <v>7.1534824845614702E-4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="50">
+      <c r="A34" s="44">
         <v>32</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="46">
         <v>7.4978772437202701E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="50">
+      <c r="A35" s="44">
         <v>33</v>
       </c>
-      <c r="B35" s="52">
+      <c r="B35" s="46">
         <v>7.8782287032243498E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="50">
+      <c r="A36" s="44">
         <v>34</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="46">
         <v>8.2979443231065604E-4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="50">
+      <c r="A37" s="44">
         <v>35</v>
       </c>
-      <c r="B37" s="52">
+      <c r="B37" s="46">
         <v>8.7608518729566604E-4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="50">
+      <c r="A38" s="44">
         <v>36</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B38" s="46">
         <v>9.2712491299441497E-4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="50">
+      <c r="A39" s="44">
         <v>37</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B39" s="46">
         <v>9.8339603113223599E-4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="50">
+      <c r="A40" s="44">
         <v>38</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="46">
         <v>1.0454400118911399E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="50">
+      <c r="A41" s="44">
         <v>39</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="46">
         <v>1.11386463964984E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="50">
+      <c r="A42" s="44">
         <v>40</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="46">
         <v>1.1893522540809499E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="50">
+      <c r="A43" s="44">
         <v>41</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="46">
         <v>1.2726690964891701E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="50">
+      <c r="A44" s="44">
         <v>42</v>
       </c>
-      <c r="B44" s="52">
+      <c r="B44" s="46">
         <v>1.3646759091818499E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="50">
+      <c r="A45" s="44">
         <v>43</v>
       </c>
-      <c r="B45" s="52">
+      <c r="B45" s="46">
         <v>1.4663399559318999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="50">
+      <c r="A46" s="44">
         <v>44</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="46">
         <v>1.5787486545196E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="50">
+      <c r="A47" s="44">
         <v>45</v>
       </c>
-      <c r="B47" s="52">
+      <c r="B47" s="46">
         <v>1.7031250382555799E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="50">
+      <c r="A48" s="44">
         <v>46</v>
       </c>
-      <c r="B48" s="52">
+      <c r="B48" s="46">
         <v>1.84084529265128E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="50">
+      <c r="A49" s="44">
         <v>47</v>
       </c>
-      <c r="B49" s="52">
+      <c r="B49" s="46">
         <v>1.99345864641008E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="50">
+      <c r="A50" s="44">
         <v>48</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="46">
         <v>2.16270993308567E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="50">
+      <c r="A51" s="44">
         <v>49</v>
       </c>
-      <c r="B51" s="52">
+      <c r="B51" s="46">
         <v>2.3505651815493699E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="50">
+      <c r="A52" s="44">
         <v>50</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B52" s="46">
         <v>2.5592406403045901E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="50">
+      <c r="A53" s="44">
         <v>51</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B53" s="46">
         <v>2.7912356931849001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="50">
+      <c r="A54" s="44">
         <v>52</v>
       </c>
-      <c r="B54" s="52">
+      <c r="B54" s="46">
         <v>3.0493701825789199E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="50">
+      <c r="A55" s="44">
         <v>53</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="46">
         <v>3.3368267215433799E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="50">
+      <c r="A56" s="44">
         <v>54</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="46">
         <v>3.6571986484674299E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="50">
+      <c r="A57" s="44">
         <v>55</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B57" s="46">
         <v>4.0145443577502002E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="50">
+      <c r="A58" s="44">
         <v>56</v>
       </c>
-      <c r="B58" s="52">
+      <c r="B58" s="46">
         <v>4.41344882756429E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="50">
+      <c r="A59" s="44">
         <v>57</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B59" s="46">
         <v>4.8590932613564704E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="50">
+      <c r="A60" s="44">
         <v>58</v>
       </c>
-      <c r="B60" s="52">
+      <c r="B60" s="46">
         <v>5.3573338632092998E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="50">
+      <c r="A61" s="44">
         <v>59</v>
       </c>
-      <c r="B61" s="52">
+      <c r="B61" s="46">
         <v>5.9147908781518998E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="50">
+      <c r="A62" s="44">
         <v>60</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="46">
         <v>6.538949146103E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="50">
+      <c r="A63" s="44">
         <v>61</v>
       </c>
-      <c r="B63" s="52">
+      <c r="B63" s="46">
         <v>7.2382715408729498E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="50">
+      <c r="A64" s="44">
         <v>62</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B64" s="46">
         <v>8.0223267912236402E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="50">
+      <c r="A65" s="44">
         <v>63</v>
       </c>
-      <c r="B65" s="52">
+      <c r="B65" s="46">
         <v>8.9019333059562993E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="50">
+      <c r="A66" s="44">
         <v>64</v>
       </c>
-      <c r="B66" s="52">
+      <c r="B66" s="46">
         <v>9.8893207444836293E-3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="50">
+      <c r="A67" s="44">
         <v>65</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B67" s="46">
         <v>1.09983111815674E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A68" s="50">
+      <c r="A68" s="44">
         <v>66</v>
       </c>
-      <c r="B68" s="52">
+      <c r="B68" s="46">
         <v>1.22445218006527E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A69" s="50">
+      <c r="A69" s="44">
         <v>67</v>
       </c>
-      <c r="B69" s="52">
+      <c r="B69" s="46">
         <v>1.36455911021784E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A70" s="50">
+      <c r="A70" s="44">
         <v>68</v>
       </c>
-      <c r="B70" s="52">
+      <c r="B70" s="46">
         <v>1.5221430615117101E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A71" s="50">
+      <c r="A71" s="44">
         <v>69</v>
       </c>
-      <c r="B71" s="52">
+      <c r="B71" s="46">
         <v>1.69945040305641E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A72" s="50">
+      <c r="A72" s="44">
         <v>70</v>
       </c>
-      <c r="B72" s="52">
+      <c r="B72" s="46">
         <v>1.8990135508036101E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A73" s="50">
+      <c r="A73" s="44">
         <v>71</v>
       </c>
-      <c r="B73" s="52">
+      <c r="B73" s="46">
         <v>2.1236848603221899E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A74" s="50">
+      <c r="A74" s="44">
         <v>72</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B74" s="46">
         <v>2.3766736785853101E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A75" s="50">
+      <c r="A75" s="44">
         <v>73</v>
       </c>
-      <c r="B75" s="52">
+      <c r="B75" s="46">
         <v>2.6615865802511601E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A76" s="50">
+      <c r="A76" s="44">
         <v>74</v>
       </c>
-      <c r="B76" s="52">
+      <c r="B76" s="46">
         <v>2.9824707122427099E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A77" s="50">
+      <c r="A77" s="44">
         <v>75</v>
       </c>
-      <c r="B77" s="52">
+      <c r="B77" s="46">
         <v>3.3438600299754401E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A78" s="50">
+      <c r="A78" s="44">
         <v>76</v>
       </c>
-      <c r="B78" s="52">
+      <c r="B78" s="46">
         <v>3.7508240190274302E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A79" s="50">
+      <c r="A79" s="44">
         <v>77</v>
       </c>
-      <c r="B79" s="52">
+      <c r="B79" s="46">
         <v>4.20901824501589E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A80" s="50">
+      <c r="A80" s="44">
         <v>78</v>
       </c>
-      <c r="B80" s="52">
+      <c r="B80" s="46">
         <v>4.7247357472937103E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A81" s="50">
+      <c r="A81" s="44">
         <v>79</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B81" s="46">
         <v>5.3049578717625799E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A82" s="50">
+      <c r="A82" s="44">
         <v>80</v>
       </c>
-      <c r="B82" s="52">
+      <c r="B82" s="46">
         <v>5.9574026051292403E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A83" s="50">
+      <c r="A83" s="44">
         <v>81</v>
       </c>
-      <c r="B83" s="52">
+      <c r="B83" s="46">
         <v>6.6905678055198703E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A84" s="50">
+      <c r="A84" s="44">
         <v>82</v>
       </c>
-      <c r="B84" s="52">
+      <c r="B84" s="46">
         <v>7.5137658987414604E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A85" s="50">
+      <c r="A85" s="44">
         <v>83</v>
       </c>
-      <c r="B85" s="52">
+      <c r="B85" s="46">
         <v>8.4371456004466494E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A86" s="50">
+      <c r="A86" s="44">
         <v>84</v>
       </c>
-      <c r="B86" s="52">
+      <c r="B86" s="46">
         <v>9.47169500615576E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A87" s="50">
+      <c r="A87" s="44">
         <v>85</v>
       </c>
-      <c r="B87" s="52">
+      <c r="B87" s="46">
         <v>0.106292189377567</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A88" s="50">
+      <c r="A88" s="44">
         <v>86</v>
       </c>
-      <c r="B88" s="52">
+      <c r="B88" s="46">
         <v>0.119222817214882</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A89" s="50">
+      <c r="A89" s="44">
         <v>87</v>
       </c>
-      <c r="B89" s="52">
+      <c r="B89" s="46">
         <v>0.13364104572945901</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A90" s="50">
+      <c r="A90" s="44">
         <v>88</v>
       </c>
-      <c r="B90" s="52">
+      <c r="B90" s="46">
         <v>0.14968404449787201</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A91" s="50">
+      <c r="A91" s="44">
         <v>89</v>
       </c>
-      <c r="B91" s="52">
+      <c r="B91" s="46">
         <v>0.167491585596626</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A92" s="50">
+      <c r="A92" s="44">
         <v>90</v>
       </c>
-      <c r="B92" s="52">
+      <c r="B92" s="46">
         <v>0.18720261438595701</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A93" s="50">
+      <c r="A93" s="44">
         <v>91</v>
       </c>
-      <c r="B93" s="52">
+      <c r="B93" s="46">
         <v>0.20830631940730501</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A94" s="50">
+      <c r="A94" s="44">
         <v>92</v>
       </c>
-      <c r="B94" s="52">
+      <c r="B94" s="46">
         <v>0.22776219465275699</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A95" s="50">
+      <c r="A95" s="44">
         <v>93</v>
       </c>
-      <c r="B95" s="52">
+      <c r="B95" s="46">
         <v>0.24267950760197299</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A96" s="50">
+      <c r="A96" s="44">
         <v>94</v>
       </c>
-      <c r="B96" s="52">
+      <c r="B96" s="46">
         <v>0.25301882661837199</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A97" s="50">
+      <c r="A97" s="44">
         <v>95</v>
       </c>
-      <c r="B97" s="52">
+      <c r="B97" s="46">
         <v>0.25944618242591699</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A98" s="50">
+      <c r="A98" s="44">
         <v>96</v>
       </c>
-      <c r="B98" s="52">
+      <c r="B98" s="46">
         <v>0.262900166091945</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A99" s="50">
+      <c r="A99" s="44">
         <v>97</v>
       </c>
-      <c r="B99" s="52">
+      <c r="B99" s="46">
         <v>0.26447343062998302</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A100" s="50">
+      <c r="A100" s="44">
         <v>98</v>
       </c>
-      <c r="B100" s="52">
+      <c r="B100" s="46">
         <v>0.26532494375676502</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A101" s="50">
+      <c r="A101" s="44">
         <v>99</v>
       </c>
-      <c r="B101" s="52">
+      <c r="B101" s="46">
         <v>0.26663579954600702</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A102" s="50">
+      <c r="A102" s="44">
         <v>100</v>
       </c>
-      <c r="B102" s="52">
+      <c r="B102" s="46">
         <v>0.26960804175806702</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A103" s="50">
+      <c r="A103" s="44">
         <v>101</v>
       </c>
-      <c r="B103" s="52">
+      <c r="B103" s="46">
         <v>0.27550611236457401</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A104" s="50">
+      <c r="A104" s="44">
         <v>102</v>
       </c>
-      <c r="B104" s="52">
+      <c r="B104" s="46">
         <v>0.28574240278916702</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A105" s="50">
+      <c r="A105" s="44">
         <v>103</v>
       </c>
-      <c r="B105" s="52">
+      <c r="B105" s="46">
         <v>0.30201049253484702</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A106" s="50">
+      <c r="A106" s="44">
         <v>104</v>
       </c>
-      <c r="B106" s="52">
+      <c r="B106" s="46">
         <v>0.28089032588013202</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A107" s="53">
+      <c r="A107" s="47">
         <v>105</v>
       </c>
-      <c r="B107" s="54">
+      <c r="B107" s="48">
         <v>0.103898838093997</v>
       </c>
     </row>
@@ -19966,864 +19975,864 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="49"/>
+    <col min="1" max="1" width="9.1328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="56">
+      <c r="A2" s="50">
         <v>0</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="45">
         <v>3.0402021047748599E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="56">
+      <c r="A3" s="50">
         <v>1</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="45">
         <v>2.1584857676128699E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="56">
+      <c r="A4" s="50">
         <v>2</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="46">
         <v>6.6833686848375107E-5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="56">
+      <c r="A5" s="50">
         <v>3</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="46">
         <v>5.23941480224815E-5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="56">
+      <c r="A6" s="50">
         <v>4</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="46">
         <v>6.4251043764582201E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="56">
+      <c r="A7" s="50">
         <v>5</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="46">
         <v>7.61296006366275E-5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="56">
+      <c r="A8" s="50">
         <v>6</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="46">
         <v>6.4523057712915602E-5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="56">
+      <c r="A9" s="50">
         <v>7</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="46">
         <v>5.3006402705884502E-5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="56">
+      <c r="A10" s="50">
         <v>8</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="46">
         <v>4.6368901268942697E-5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="56">
+      <c r="A11" s="50">
         <v>9</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="46">
         <v>4.3060618955479201E-5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="56">
+      <c r="A12" s="50">
         <v>10</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="46">
         <v>4.2321268398362898E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="56">
+      <c r="A13" s="50">
         <v>11</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="46">
         <v>4.3886592647408002E-5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="56">
+      <c r="A14" s="50">
         <v>12</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="46">
         <v>4.7870678492256303E-5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="56">
+      <c r="A15" s="50">
         <v>13</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="46">
         <v>5.4757234138411598E-5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="56">
+      <c r="A16" s="50">
         <v>14</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="46">
         <v>6.5481285825095599E-5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="56">
+      <c r="A17" s="50">
         <v>15</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="46">
         <v>8.16142723549762E-5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="56">
+      <c r="A18" s="50">
         <v>16</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="46">
         <v>1.0569574161098499E-4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="56">
+      <c r="A19" s="50">
         <v>17</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="46">
         <v>1.41794779281004E-4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="56">
+      <c r="A20" s="50">
         <v>18</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="46">
         <v>1.8852079070331699E-4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="56">
+      <c r="A21" s="50">
         <v>19</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="46">
         <v>2.0377338745456E-4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="56">
+      <c r="A22" s="50">
         <v>20</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="46">
         <v>1.75183178030737E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="56">
+      <c r="A23" s="50">
         <v>21</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="46">
         <v>1.5335602192229899E-4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="56">
+      <c r="A24" s="50">
         <v>22</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="46">
         <v>1.5171925367732101E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="56">
+      <c r="A25" s="50">
         <v>23</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="46">
         <v>1.63020653793042E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="56">
+      <c r="A26" s="50">
         <v>24</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="46">
         <v>1.81903309934023E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="56">
+      <c r="A27" s="50">
         <v>25</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="46">
         <v>2.027220542026E-4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="56">
+      <c r="A28" s="50">
         <v>26</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="46">
         <v>2.2370029166778399E-4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="56">
+      <c r="A29" s="50">
         <v>27</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="46">
         <v>2.4471005551104301E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="56">
+      <c r="A30" s="50">
         <v>28</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="46">
         <v>2.6568895148740702E-4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="56">
+      <c r="A31" s="50">
         <v>29</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="46">
         <v>2.8664757620576302E-4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="56">
+      <c r="A32" s="50">
         <v>30</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="46">
         <v>3.0767543333420899E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="56">
+      <c r="A33" s="50">
         <v>31</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B33" s="46">
         <v>3.2894537657421899E-4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="56">
+      <c r="A34" s="50">
         <v>32</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="46">
         <v>3.5071779552636701E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="56">
+      <c r="A35" s="50">
         <v>33</v>
       </c>
-      <c r="B35" s="52">
+      <c r="B35" s="46">
         <v>3.7334598113363503E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="56">
+      <c r="A36" s="50">
         <v>34</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="46">
         <v>3.9728430738708001E-4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="56">
+      <c r="A37" s="50">
         <v>35</v>
       </c>
-      <c r="B37" s="52">
+      <c r="B37" s="46">
         <v>4.23101104300421E-4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="56">
+      <c r="A38" s="50">
         <v>36</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B38" s="46">
         <v>4.5149844823258001E-4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="56">
+      <c r="A39" s="50">
         <v>37</v>
       </c>
-      <c r="B39" s="52">
+      <c r="B39" s="46">
         <v>4.8334165340862498E-4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="56">
+      <c r="A40" s="50">
         <v>38</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="46">
         <v>5.19702137051301E-4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="56">
+      <c r="A41" s="50">
         <v>39</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="46">
         <v>5.6190636921567099E-4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="56">
+      <c r="A42" s="50">
         <v>40</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="46">
         <v>6.1115268332289198E-4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="56">
+      <c r="A43" s="50">
         <v>41</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="46">
         <v>6.6827489871141297E-4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="56">
+      <c r="A44" s="50">
         <v>42</v>
       </c>
-      <c r="B44" s="52">
+      <c r="B44" s="46">
         <v>7.3417051165258101E-4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="56">
+      <c r="A45" s="50">
         <v>43</v>
       </c>
-      <c r="B45" s="52">
+      <c r="B45" s="46">
         <v>8.0982610662979899E-4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="56">
+      <c r="A46" s="50">
         <v>44</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="46">
         <v>8.9630604653462005E-4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="56">
+      <c r="A47" s="50">
         <v>45</v>
       </c>
-      <c r="B47" s="52">
+      <c r="B47" s="46">
         <v>9.9473466058028898E-4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="56">
+      <c r="A48" s="50">
         <v>46</v>
       </c>
-      <c r="B48" s="52">
+      <c r="B48" s="46">
         <v>1.1062701474698899E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="56">
+      <c r="A49" s="50">
         <v>47</v>
       </c>
-      <c r="B49" s="52">
+      <c r="B49" s="46">
         <v>1.23206834263559E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="56">
+      <c r="A50" s="50">
         <v>48</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="46">
         <v>1.3732345509328901E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="56">
+      <c r="A51" s="50">
         <v>49</v>
       </c>
-      <c r="B51" s="52">
+      <c r="B51" s="46">
         <v>1.5307618807215201E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="56">
+      <c r="A52" s="50">
         <v>50</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B52" s="46">
         <v>1.7054549971357801E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="56">
+      <c r="A53" s="50">
         <v>51</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B53" s="46">
         <v>1.8978390070352601E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="56">
+      <c r="A54" s="50">
         <v>52</v>
       </c>
-      <c r="B54" s="52">
+      <c r="B54" s="46">
         <v>2.10805435169815E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="56">
+      <c r="A55" s="50">
         <v>53</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="46">
         <v>2.3359940079462301E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="56">
+      <c r="A56" s="50">
         <v>54</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="46">
         <v>2.5826237019571899E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="56">
+      <c r="A57" s="50">
         <v>55</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B57" s="46">
         <v>2.8495500022810601E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="56">
+      <c r="A58" s="50">
         <v>56</v>
       </c>
-      <c r="B58" s="52">
+      <c r="B58" s="46">
         <v>3.1386541236089098E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="56">
+      <c r="A59" s="50">
         <v>57</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B59" s="46">
         <v>3.4521438223379399E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="56">
+      <c r="A60" s="50">
         <v>58</v>
       </c>
-      <c r="B60" s="52">
+      <c r="B60" s="46">
         <v>3.7926143110602198E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="56">
+      <c r="A61" s="50">
         <v>59</v>
       </c>
-      <c r="B61" s="52">
+      <c r="B61" s="46">
         <v>4.1631196258070796E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="56">
+      <c r="A62" s="50">
         <v>60</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="46">
         <v>4.5672568114402696E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="56">
+      <c r="A63" s="50">
         <v>61</v>
       </c>
-      <c r="B63" s="52">
+      <c r="B63" s="46">
         <v>5.0092659012396798E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="56">
+      <c r="A64" s="50">
         <v>62</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B64" s="46">
         <v>5.4941494288832503E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="56">
+      <c r="A65" s="50">
         <v>63</v>
       </c>
-      <c r="B65" s="52">
+      <c r="B65" s="46">
         <v>6.0278161673907003E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="56">
+      <c r="A66" s="50">
         <v>64</v>
       </c>
-      <c r="B66" s="52">
+      <c r="B66" s="46">
         <v>6.6172549963067597E-3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="56">
+      <c r="A67" s="50">
         <v>65</v>
       </c>
-      <c r="B67" s="52">
+      <c r="B67" s="46">
         <v>7.2707463287888501E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A68" s="56">
+      <c r="A68" s="50">
         <v>66</v>
       </c>
-      <c r="B68" s="52">
+      <c r="B68" s="46">
         <v>7.9981204802370004E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A69" s="56">
+      <c r="A69" s="50">
         <v>67</v>
       </c>
-      <c r="B69" s="52">
+      <c r="B69" s="46">
         <v>8.8110748550173697E-3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A70" s="56">
+      <c r="A70" s="50">
         <v>68</v>
       </c>
-      <c r="B70" s="52">
+      <c r="B70" s="46">
         <v>9.7235650315609292E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A71" s="56">
+      <c r="A71" s="50">
         <v>69</v>
       </c>
-      <c r="B71" s="52">
+      <c r="B71" s="46">
         <v>1.07522889528055E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A72" s="56">
+      <c r="A72" s="50">
         <v>70</v>
       </c>
-      <c r="B72" s="52">
+      <c r="B72" s="46">
         <v>1.1917288758108401E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A73" s="56">
+      <c r="A73" s="50">
         <v>71</v>
       </c>
-      <c r="B73" s="52">
+      <c r="B73" s="46">
         <v>1.32427016883537E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A74" s="56">
+      <c r="A74" s="50">
         <v>72</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B74" s="46">
         <v>1.47577004299461E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A75" s="56">
+      <c r="A75" s="50">
         <v>73</v>
       </c>
-      <c r="B75" s="52">
+      <c r="B75" s="46">
         <v>1.6497674843452499E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A76" s="56">
+      <c r="A76" s="50">
         <v>74</v>
       </c>
-      <c r="B76" s="52">
+      <c r="B76" s="46">
         <v>1.85057220229033E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A77" s="56">
+      <c r="A77" s="50">
         <v>75</v>
       </c>
-      <c r="B77" s="52">
+      <c r="B77" s="46">
         <v>2.0834531021667799E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A78" s="56">
+      <c r="A78" s="50">
         <v>76</v>
       </c>
-      <c r="B78" s="52">
+      <c r="B78" s="46">
         <v>2.3548127793499601E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A79" s="56">
+      <c r="A79" s="50">
         <v>77</v>
       </c>
-      <c r="B79" s="52">
+      <c r="B79" s="46">
         <v>2.67132578292422E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A80" s="56">
+      <c r="A80" s="50">
         <v>78</v>
       </c>
-      <c r="B80" s="52">
+      <c r="B80" s="46">
         <v>3.0397452838287799E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A81" s="56">
+      <c r="A81" s="50">
         <v>79</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B81" s="46">
         <v>3.46755279071711E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A82" s="56">
+      <c r="A82" s="50">
         <v>80</v>
       </c>
-      <c r="B82" s="52">
+      <c r="B82" s="46">
         <v>3.9629463217747199E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A83" s="56">
+      <c r="A83" s="50">
         <v>81</v>
       </c>
-      <c r="B83" s="52">
+      <c r="B83" s="46">
         <v>4.5347587927878699E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A84" s="56">
+      <c r="A84" s="50">
         <v>82</v>
       </c>
-      <c r="B84" s="52">
+      <c r="B84" s="46">
         <v>5.1923133951597998E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A85" s="56">
+      <c r="A85" s="50">
         <v>83</v>
       </c>
-      <c r="B85" s="52">
+      <c r="B85" s="46">
         <v>5.9452007820299101E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A86" s="56">
+      <c r="A86" s="50">
         <v>84</v>
       </c>
-      <c r="B86" s="52">
+      <c r="B86" s="46">
         <v>6.80296360444924E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A87" s="56">
+      <c r="A87" s="50">
         <v>85</v>
       </c>
-      <c r="B87" s="52">
+      <c r="B87" s="46">
         <v>7.7746766453785102E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A88" s="56">
+      <c r="A88" s="50">
         <v>86</v>
       </c>
-      <c r="B88" s="52">
+      <c r="B88" s="46">
         <v>8.8684161775760606E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A89" s="56">
+      <c r="A89" s="50">
         <v>87</v>
       </c>
-      <c r="B89" s="52">
+      <c r="B89" s="46">
         <v>0.100906207369077</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A90" s="56">
+      <c r="A90" s="50">
         <v>88</v>
       </c>
-      <c r="B90" s="52">
+      <c r="B90" s="46">
         <v>0.11445357448149</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A91" s="56">
+      <c r="A91" s="50">
         <v>89</v>
       </c>
-      <c r="B91" s="52">
+      <c r="B91" s="46">
         <v>0.129335230100423</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A92" s="56">
+      <c r="A92" s="50">
         <v>90</v>
       </c>
-      <c r="B92" s="52">
+      <c r="B92" s="46">
         <v>0.145520253199655</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A93" s="56">
+      <c r="A93" s="50">
         <v>91</v>
       </c>
-      <c r="B93" s="52">
+      <c r="B93" s="46">
         <v>0.16293008482600799</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A94" s="56">
+      <c r="A94" s="50">
         <v>92</v>
       </c>
-      <c r="B94" s="52">
+      <c r="B94" s="46">
         <v>0.18143197743376799</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A95" s="56">
+      <c r="A95" s="50">
         <v>93</v>
       </c>
-      <c r="B95" s="52">
+      <c r="B95" s="46">
         <v>0.20083448317163999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A96" s="56">
+      <c r="A96" s="50">
         <v>94</v>
       </c>
-      <c r="B96" s="52">
+      <c r="B96" s="46">
         <v>0.22088579788916901</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A97" s="56">
+      <c r="A97" s="50">
         <v>95</v>
       </c>
-      <c r="B97" s="52">
+      <c r="B97" s="46">
         <v>0.24127563227146301</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A98" s="56">
+      <c r="A98" s="50">
         <v>96</v>
       </c>
-      <c r="B98" s="52">
+      <c r="B98" s="46">
         <v>0.26164100536823198</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A99" s="56">
+      <c r="A99" s="50">
         <v>97</v>
       </c>
-      <c r="B99" s="52">
+      <c r="B99" s="46">
         <v>0.28157596397600299</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A100" s="56">
+      <c r="A100" s="50">
         <v>98</v>
       </c>
-      <c r="B100" s="52">
+      <c r="B100" s="46">
         <v>0.30064476536685703</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A101" s="56">
+      <c r="A101" s="50">
         <v>99</v>
       </c>
-      <c r="B101" s="52">
+      <c r="B101" s="46">
         <v>0.31839758691813003</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A102" s="56">
+      <c r="A102" s="50">
         <v>100</v>
       </c>
-      <c r="B102" s="52">
+      <c r="B102" s="46">
         <v>0.33438742935948801</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A103" s="56">
+      <c r="A103" s="50">
         <v>101</v>
       </c>
-      <c r="B103" s="52">
+      <c r="B103" s="46">
         <v>0.348186655582782</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A104" s="56">
+      <c r="A104" s="50">
         <v>102</v>
       </c>
-      <c r="B104" s="52">
+      <c r="B104" s="46">
         <v>0.35940164615075099</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A105" s="56">
+      <c r="A105" s="50">
         <v>103</v>
       </c>
-      <c r="B105" s="52">
+      <c r="B105" s="46">
         <v>0.36768442392633099</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A106" s="56">
+      <c r="A106" s="50">
         <v>104</v>
       </c>
-      <c r="B106" s="52">
+      <c r="B106" s="46">
         <v>0.34752987105252803</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A107" s="57">
+      <c r="A107" s="51">
         <v>105</v>
       </c>
-      <c r="B107" s="54">
+      <c r="B107" s="48">
         <v>0.21044991042282801</v>
       </c>
     </row>
@@ -20842,19 +20851,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="55"/>
+    <col min="1" max="2" width="9.06640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="55">
+      <c r="A2" s="49">
         <v>0</v>
       </c>
       <c r="B2" s="20">
@@ -20862,7 +20871,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="20">
@@ -20870,7 +20879,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="49" t="s">
         <v>200</v>
       </c>
       <c r="B4" s="20">
@@ -20878,7 +20887,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="49" t="s">
         <v>201</v>
       </c>
       <c r="B5" s="20">
@@ -20886,7 +20895,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>202</v>
       </c>
       <c r="B6" s="20">
@@ -20894,7 +20903,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="49" t="s">
         <v>203</v>
       </c>
       <c r="B7" s="20">
@@ -20902,7 +20911,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="49" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="20">
@@ -20910,7 +20919,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="49" t="s">
         <v>205</v>
       </c>
       <c r="B9" s="20">
@@ -20918,7 +20927,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="49" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="20">
@@ -20926,7 +20935,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>207</v>
       </c>
       <c r="B11" s="20">
@@ -20934,7 +20943,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="49" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="20">
@@ -20942,7 +20951,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="49" t="s">
         <v>209</v>
       </c>
       <c r="B13" s="20">
@@ -20950,7 +20959,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="49" t="s">
         <v>210</v>
       </c>
       <c r="B14" s="20">
@@ -20958,7 +20967,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="49" t="s">
         <v>211</v>
       </c>
       <c r="B15" s="20">
@@ -20966,7 +20975,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B16" s="20">
@@ -20974,7 +20983,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="49" t="s">
         <v>213</v>
       </c>
       <c r="B17" s="20">
@@ -20982,7 +20991,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="49" t="s">
         <v>214</v>
       </c>
       <c r="B18" s="20">
@@ -20990,7 +20999,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="49" t="s">
         <v>215</v>
       </c>
       <c r="B19" s="20">
@@ -20998,7 +21007,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="49" t="s">
         <v>216</v>
       </c>
       <c r="B20" s="20">
@@ -21006,7 +21015,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="49" t="s">
         <v>217</v>
       </c>
       <c r="B21" s="20">
@@ -21014,7 +21023,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B22" s="20">
@@ -21022,7 +21031,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="49" t="s">
         <v>219</v>
       </c>
       <c r="B23" s="20">
@@ -21030,7 +21039,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>220</v>
       </c>
       <c r="B24" s="20">
@@ -21038,7 +21047,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="49" t="s">
         <v>221</v>
       </c>
       <c r="B25" s="20">
@@ -21046,7 +21055,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="49" t="s">
         <v>222</v>
       </c>
       <c r="B26" s="20">
@@ -21054,7 +21063,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="49" t="s">
         <v>223</v>
       </c>
       <c r="B27" s="20">
@@ -21062,7 +21071,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="49" t="s">
         <v>224</v>
       </c>
       <c r="B28" s="20">
@@ -21070,7 +21079,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="49" t="s">
         <v>225</v>
       </c>
       <c r="B29" s="20">
@@ -21078,7 +21087,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="49" t="s">
         <v>226</v>
       </c>
       <c r="B30" s="20">
@@ -21086,7 +21095,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="49" t="s">
         <v>227</v>
       </c>
       <c r="B31" s="20">
@@ -21094,7 +21103,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="49" t="s">
         <v>228</v>
       </c>
       <c r="B32" s="20">
@@ -21102,7 +21111,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="49" t="s">
         <v>229</v>
       </c>
       <c r="B33" s="20">
@@ -21110,7 +21119,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="49" t="s">
         <v>230</v>
       </c>
       <c r="B34" s="20">
@@ -21118,7 +21127,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="49" t="s">
         <v>231</v>
       </c>
       <c r="B35" s="20">
@@ -21126,7 +21135,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="49" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="20">
@@ -21134,7 +21143,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="49" t="s">
         <v>233</v>
       </c>
       <c r="B37" s="20">
@@ -21142,7 +21151,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="49" t="s">
         <v>234</v>
       </c>
       <c r="B38" s="20">
@@ -21150,7 +21159,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="49" t="s">
         <v>235</v>
       </c>
       <c r="B39" s="20">
@@ -21158,7 +21167,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="49" t="s">
         <v>236</v>
       </c>
       <c r="B40" s="20">
@@ -21166,7 +21175,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="49" t="s">
         <v>237</v>
       </c>
       <c r="B41" s="20">
@@ -21174,7 +21183,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="49" t="s">
         <v>238</v>
       </c>
       <c r="B42" s="20">
@@ -21182,7 +21191,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="49" t="s">
         <v>239</v>
       </c>
       <c r="B43" s="20">
@@ -21190,7 +21199,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="49" t="s">
         <v>240</v>
       </c>
       <c r="B44" s="20">
@@ -21198,7 +21207,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="49" t="s">
         <v>241</v>
       </c>
       <c r="B45" s="20">
@@ -21206,7 +21215,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="49" t="s">
         <v>242</v>
       </c>
       <c r="B46" s="20">
@@ -21214,7 +21223,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="49" t="s">
         <v>243</v>
       </c>
       <c r="B47" s="20">
@@ -21222,7 +21231,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="49" t="s">
         <v>244</v>
       </c>
       <c r="B48" s="20">
@@ -21230,7 +21239,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="49" t="s">
         <v>245</v>
       </c>
       <c r="B49" s="20">
@@ -21238,7 +21247,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="49" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="20">
@@ -21246,7 +21255,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="49" t="s">
         <v>247</v>
       </c>
       <c r="B51" s="20">
@@ -21254,7 +21263,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="49" t="s">
         <v>248</v>
       </c>
       <c r="B52" s="20">
@@ -21262,7 +21271,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="49" t="s">
         <v>249</v>
       </c>
       <c r="B53" s="20">
@@ -21270,7 +21279,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="49" t="s">
         <v>250</v>
       </c>
       <c r="B54" s="20">
@@ -21278,7 +21287,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="49" t="s">
         <v>251</v>
       </c>
       <c r="B55" s="20">
@@ -21286,7 +21295,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="49" t="s">
         <v>252</v>
       </c>
       <c r="B56" s="20">
@@ -21294,7 +21303,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="49" t="s">
         <v>253</v>
       </c>
       <c r="B57" s="20">
@@ -21302,7 +21311,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="49" t="s">
         <v>254</v>
       </c>
       <c r="B58" s="20">
@@ -21310,7 +21319,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="49" t="s">
         <v>255</v>
       </c>
       <c r="B59" s="20">
@@ -21318,7 +21327,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="49" t="s">
         <v>256</v>
       </c>
       <c r="B60" s="20">
@@ -21326,7 +21335,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="49" t="s">
         <v>257</v>
       </c>
       <c r="B61" s="20">
@@ -21334,7 +21343,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="49" t="s">
         <v>258</v>
       </c>
       <c r="B62" s="20">
@@ -21342,7 +21351,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="49" t="s">
         <v>259</v>
       </c>
       <c r="B63" s="20">
@@ -21350,7 +21359,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="49" t="s">
         <v>260</v>
       </c>
       <c r="B64" s="20">
@@ -21358,7 +21367,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="49" t="s">
         <v>261</v>
       </c>
       <c r="B65" s="20">
@@ -21366,7 +21375,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="49" t="s">
         <v>262</v>
       </c>
       <c r="B66" s="20">
@@ -21374,7 +21383,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="49" t="s">
         <v>263</v>
       </c>
       <c r="B67" s="20">
@@ -21382,7 +21391,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="49" t="s">
         <v>264</v>
       </c>
       <c r="B68" s="20">
@@ -21390,7 +21399,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="49" t="s">
         <v>265</v>
       </c>
       <c r="B69" s="20">
@@ -21398,7 +21407,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="49" t="s">
         <v>266</v>
       </c>
       <c r="B70" s="20">
@@ -21406,7 +21415,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="49" t="s">
         <v>267</v>
       </c>
       <c r="B71" s="20">
@@ -21414,7 +21423,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="49" t="s">
         <v>268</v>
       </c>
       <c r="B72" s="20">
@@ -21422,7 +21431,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="49" t="s">
         <v>269</v>
       </c>
       <c r="B73" s="20">
@@ -21430,7 +21439,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="49" t="s">
         <v>270</v>
       </c>
       <c r="B74" s="20">
@@ -21438,7 +21447,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="49" t="s">
         <v>271</v>
       </c>
       <c r="B75" s="20">
@@ -21446,7 +21455,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="49" t="s">
         <v>272</v>
       </c>
       <c r="B76" s="20">
@@ -21454,7 +21463,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="49" t="s">
         <v>273</v>
       </c>
       <c r="B77" s="20">
@@ -21462,7 +21471,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="49" t="s">
         <v>274</v>
       </c>
       <c r="B78" s="20">
@@ -21470,7 +21479,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="49" t="s">
         <v>275</v>
       </c>
       <c r="B79" s="20">
@@ -21478,7 +21487,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="49" t="s">
         <v>276</v>
       </c>
       <c r="B80" s="20">
@@ -21486,7 +21495,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="49" t="s">
         <v>277</v>
       </c>
       <c r="B81" s="20">
@@ -21494,7 +21503,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="49" t="s">
         <v>278</v>
       </c>
       <c r="B82" s="20">
@@ -21502,7 +21511,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="49" t="s">
         <v>279</v>
       </c>
       <c r="B83" s="20">
@@ -21510,7 +21519,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="49" t="s">
         <v>280</v>
       </c>
       <c r="B84" s="20">
@@ -21518,7 +21527,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="49" t="s">
         <v>281</v>
       </c>
       <c r="B85" s="20">
@@ -21526,7 +21535,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="49" t="s">
         <v>282</v>
       </c>
       <c r="B86" s="20">
